--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5209580838323353</v>
+        <v>0.4850299401197605</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1040320152009262</v>
+        <v>0.09525981646909069</v>
       </c>
       <c r="J2" t="n">
-        <v>1336.407856875608</v>
+        <v>1246.69472640501</v>
       </c>
       <c r="K2" t="n">
-        <v>2313592.117107232</v>
+        <v>2104953.967385828</v>
       </c>
       <c r="L2" t="n">
-        <v>1521.049676081367</v>
+        <v>1450.845948881489</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5709741211814534</v>
+        <v>0.6096633805705372</v>
       </c>
     </row>
   </sheetData>
